--- a/output/fit_clients/fit_round_479.xlsx
+++ b/output/fit_clients/fit_round_479.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2130248324.414797</v>
+        <v>1614948167.827217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08944936390709736</v>
+        <v>0.07248575424794028</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02738115609398432</v>
+        <v>0.03455546815653433</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1065124175.355619</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1963836007.468736</v>
+        <v>2637351590.799317</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1761545052010881</v>
+        <v>0.1340254442008771</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03502992637063861</v>
+        <v>0.03904232461148589</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>981918038.2210382</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3744978946.543471</v>
+        <v>4813674107.239821</v>
       </c>
       <c r="F4" t="n">
-        <v>0.157206033839586</v>
+        <v>0.1101510704896188</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02352409486551904</v>
+        <v>0.02561520165220264</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>172</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1872489469.418191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2892573098.508898</v>
+        <v>3589731379.027464</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09087189421041468</v>
+        <v>0.07425555806231621</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03754120321652597</v>
+        <v>0.04222977773730825</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>176</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1446286626.240926</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1852276478.015741</v>
+        <v>2121588059.8088</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1218267857094768</v>
+        <v>0.13184992364055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04981694209977258</v>
+        <v>0.04357868762929151</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>926138284.6122023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1928543311.031508</v>
+        <v>2875641351.120994</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09587186781982</v>
+        <v>0.08202930818587421</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04380540698154214</v>
+        <v>0.03170346849762691</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>964271723.5784349</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3029862770.498425</v>
+        <v>3903676085.157507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2000956285843168</v>
+        <v>0.1995169832873991</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02952022899631518</v>
+        <v>0.03298566199350227</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>152</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1514931445.838925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1500046438.728201</v>
+        <v>1547336428.06351</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1677569448858372</v>
+        <v>0.1505433551804221</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02550063926277926</v>
+        <v>0.02864335078611448</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>750023315.3632585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5219209615.450447</v>
+        <v>3919587955.958826</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1389345227391146</v>
+        <v>0.1457863632507251</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04530915143941439</v>
+        <v>0.04348946147494767</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>201</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2609604924.012581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3396869197.568657</v>
+        <v>2742098366.753642</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123202242951269</v>
+        <v>0.1546560656826931</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04694223015739946</v>
+        <v>0.04318330049564913</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>198</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1698434569.395265</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2414910597.269476</v>
+        <v>2798739107.297823</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1609219122164629</v>
+        <v>0.1405375663587467</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03593962587507398</v>
+        <v>0.05266357056503992</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>162</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1207455263.091078</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3358935113.934299</v>
+        <v>4218949936.659073</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08289415966597281</v>
+        <v>0.1012178431327738</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02255871868509718</v>
+        <v>0.0188901156644193</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>160</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1679467644.476649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2927358720.140236</v>
+        <v>3235446742.143652</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1431339992646903</v>
+        <v>0.1251505578947383</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03515689100611788</v>
+        <v>0.0420036663661912</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>152</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1463679399.78956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1516414653.847559</v>
+        <v>1472974555.671012</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0761101795997855</v>
+        <v>0.09899915725081634</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04525995906506399</v>
+        <v>0.03320721300478017</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>758207416.1781918</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2287583383.660986</v>
+        <v>1949332507.922628</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1002000237762034</v>
+        <v>0.08798788228261607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04653514632867797</v>
+        <v>0.03520911227502846</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1143791741.642622</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4546437946.987162</v>
+        <v>4615276193.993473</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1392751239697166</v>
+        <v>0.1529032486585871</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05224915326913575</v>
+        <v>0.03288345724299576</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2273218981.125619</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2768434256.345899</v>
+        <v>3291063608.652241</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1193183556463613</v>
+        <v>0.1231990104794966</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02864541880874503</v>
+        <v>0.02765655106718513</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>157</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1384217175.180365</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1099854495.046245</v>
+        <v>1096093197.0375</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1204750525760867</v>
+        <v>0.1556236927571659</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02258867613129593</v>
+        <v>0.02500824854679602</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>549927301.0750775</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2338316477.364112</v>
+        <v>2584023331.913639</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1119675643164941</v>
+        <v>0.1263917526242975</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02833284182719716</v>
+        <v>0.02626071223411284</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1169158229.024564</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2284738434.50414</v>
+        <v>2681946341.373733</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09972611887982367</v>
+        <v>0.06948312711439859</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03644477087367679</v>
+        <v>0.03037928315968648</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1142369225.989401</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2592581730.410021</v>
+        <v>3535140818.108157</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09516821342167664</v>
+        <v>0.1329205970494754</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05118991684719408</v>
+        <v>0.04757829574555063</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>135</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1296290951.151644</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1468216640.642614</v>
+        <v>952005028.0393158</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1255062529112885</v>
+        <v>0.1214041071450701</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03903231467389902</v>
+        <v>0.04244564660105109</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>734108311.6590636</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2555409033.744771</v>
+        <v>3025458853.35844</v>
       </c>
       <c r="F24" t="n">
-        <v>0.148994407913993</v>
+        <v>0.1290098543698561</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02628282611326933</v>
+        <v>0.02322777069440132</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>140</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1277704582.034941</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1039630404.514393</v>
+        <v>1164930446.105386</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07844525463019082</v>
+        <v>0.09310614894760209</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02220848707760787</v>
+        <v>0.02086581668680475</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>519815257.1492316</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1385605384.997999</v>
+        <v>885397496.2734922</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1222925024013732</v>
+        <v>0.07654355092151016</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02716705571164843</v>
+        <v>0.02834724462336471</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>692802759.0291457</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4620769842.982016</v>
+        <v>3657256057.081649</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1171553656784634</v>
+        <v>0.1494148844548656</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01817295147915508</v>
+        <v>0.0252280937509737</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>124</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2310384900.854073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3755912982.013892</v>
+        <v>3056665157.361334</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1503925177756306</v>
+        <v>0.1419959844780363</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04890454378337798</v>
+        <v>0.03716427555400505</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1877956567.863082</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3616574552.392014</v>
+        <v>5471855055.071439</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1079805896745661</v>
+        <v>0.1132714514246561</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02999216608999479</v>
+        <v>0.04150808747738823</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>211</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1808287319.593162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2357047953.954252</v>
+        <v>2229111608.811377</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08594812754658911</v>
+        <v>0.1380973118999644</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03140391760047773</v>
+        <v>0.02590219263010357</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1178524055.109315</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1066463798.522855</v>
+        <v>1481302213.780793</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1027493130488646</v>
+        <v>0.08839309650897037</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03221265974547954</v>
+        <v>0.05046505976256564</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>533231882.1782022</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1742623090.396459</v>
+        <v>1374996846.851673</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08720628425036299</v>
+        <v>0.09796825607085254</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02610934340772092</v>
+        <v>0.02667354257501017</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>871311663.8269092</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2991658770.226241</v>
+        <v>2272913119.771322</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1395038961896422</v>
+        <v>0.1507817876974371</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04763554014306026</v>
+        <v>0.05530753338086007</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1495829381.458092</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1250061304.470386</v>
+        <v>1195696720.433142</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09149721277477071</v>
+        <v>0.08500348435333543</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02368609226916835</v>
+        <v>0.02180749649980486</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>625030649.1458926</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>846814408.4354827</v>
+        <v>1159600309.960774</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1037019117978343</v>
+        <v>0.07145019550986051</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02756259752027701</v>
+        <v>0.02988566269755865</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>423407256.4164936</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2545825836.561538</v>
+        <v>3075913192.499094</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1745952845522374</v>
+        <v>0.1704425773808569</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02592716669059139</v>
+        <v>0.01853698918940999</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1272912936.585381</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2322805210.861202</v>
+        <v>2025498341.287527</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08843167344859854</v>
+        <v>0.1028508360207432</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03418777910062257</v>
+        <v>0.03496748114367523</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1161402677.130568</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2077762069.432414</v>
+        <v>2192635931.479819</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1073727033804725</v>
+        <v>0.0966707958835797</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02553127546880752</v>
+        <v>0.03004829161083615</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1038881002.373604</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1659804781.818979</v>
+        <v>1772669463.832992</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1912183143312885</v>
+        <v>0.1902819583062924</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02444314961852721</v>
+        <v>0.02981846165239388</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>829902437.0932522</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1701514083.802129</v>
+        <v>1450578689.810066</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1254579959451881</v>
+        <v>0.1417576954395615</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0392441197077348</v>
+        <v>0.04496193392711968</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>850756957.6842027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2030521322.347801</v>
+        <v>2241883169.906602</v>
       </c>
       <c r="F41" t="n">
-        <v>0.152392514189377</v>
+        <v>0.1411383741779302</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03366302643214202</v>
+        <v>0.03296072894047072</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>116</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1015260732.411182</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3045334212.353815</v>
+        <v>3925815470.39019</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1157028221514819</v>
+        <v>0.1090892022592138</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03191943148979805</v>
+        <v>0.039403202867988</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1522667069.782606</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2166681267.244422</v>
+        <v>3007983747.394956</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1988168305237835</v>
+        <v>0.1886217677887999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02104237327637559</v>
+        <v>0.020823131235347</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>167</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1083340715.824912</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1642169452.414173</v>
+        <v>1709767111.830313</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08828729716801169</v>
+        <v>0.08346117496236251</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03065600195613611</v>
+        <v>0.02274817150712222</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>821084761.170606</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2394881000.318324</v>
+        <v>2064221672.503822</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1523848764868824</v>
+        <v>0.1593234366994145</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03483184249232609</v>
+        <v>0.04250877934428195</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1197440530.831837</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5694254518.631597</v>
+        <v>4695902363.156507</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1298094686755377</v>
+        <v>0.1546138855497181</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04686294717438618</v>
+        <v>0.05856128713541925</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>170</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2847127325.915705</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3135818471.216306</v>
+        <v>4214166941.966694</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1805340680671533</v>
+        <v>0.1608567006740196</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04322720035324101</v>
+        <v>0.04374303099825375</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1567909185.805835</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4606169797.461411</v>
+        <v>4700921974.005415</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09422790115706785</v>
+        <v>0.08969913216722825</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03384138166182232</v>
+        <v>0.03352918099804617</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>155</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2303084897.877024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1361020983.728592</v>
+        <v>1580054281.692245</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1219623218185562</v>
+        <v>0.1640543069508152</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02974325675905784</v>
+        <v>0.02973934114939561</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>680510545.5260999</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2899062359.821548</v>
+        <v>4058769311.089389</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1704426189168713</v>
+        <v>0.1643986746571834</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04331476958913683</v>
+        <v>0.04979185812055346</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>163</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1449531246.943995</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1338101749.763532</v>
+        <v>1192225909.348163</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1700071886724802</v>
+        <v>0.157183370693189</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04559870916881613</v>
+        <v>0.04890267135045116</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>669050904.0635287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5149235525.193535</v>
+        <v>4664516252.087259</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08797444020499892</v>
+        <v>0.1352278712224853</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05422901606230808</v>
+        <v>0.03935443897787958</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>197</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2574617751.461126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3677529036.972618</v>
+        <v>2842692976.048532</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1726396593077624</v>
+        <v>0.1767575516194816</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03443314402448377</v>
+        <v>0.02648227069524655</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1838764504.162486</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4679109484.687913</v>
+        <v>4972023140.436613</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1258755038624816</v>
+        <v>0.1321682499031425</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03488926020121741</v>
+        <v>0.04849082523265586</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>155</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2339554859.767978</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3747583261.907105</v>
+        <v>4112022266.627007</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1836052255654357</v>
+        <v>0.2169561792276746</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02431985398433449</v>
+        <v>0.02214110087815437</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1873791594.731561</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1670622398.445119</v>
+        <v>1620275342.403046</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1504945068386851</v>
+        <v>0.1158725682778561</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04873616169802818</v>
+        <v>0.052671072778281</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>835311216.2372258</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3885343455.019701</v>
+        <v>2946449389.858941</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1188066499802115</v>
+        <v>0.1760464340440616</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0175467936642036</v>
+        <v>0.01683583774636322</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>152</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1942671806.271161</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1744598208.754652</v>
+        <v>1273460080.579391</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1369203732152096</v>
+        <v>0.1858228880397788</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02466407979182754</v>
+        <v>0.02738769287562072</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>872299113.2278873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4083188453.504967</v>
+        <v>4759197829.454521</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08792171169892184</v>
+        <v>0.08927777294895235</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04459991043016389</v>
+        <v>0.04008677640051741</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>135</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2041594198.713917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2623312780.874386</v>
+        <v>3279952118.851373</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1813013994364151</v>
+        <v>0.1641267279789239</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0288252768105881</v>
+        <v>0.02236570019738318</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>149</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1311656421.29949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2303061008.389452</v>
+        <v>2212828305.354451</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1796513708195411</v>
+        <v>0.1324579318855878</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02408733557808341</v>
+        <v>0.02092493586599817</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>164</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1151530550.405657</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1304409267.573302</v>
+        <v>1466830437.517958</v>
       </c>
       <c r="F62" t="n">
-        <v>0.157114804606983</v>
+        <v>0.1446585454170351</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04490167358895493</v>
+        <v>0.04073433570849794</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>652204587.4977151</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3981693593.778645</v>
+        <v>5090433810.700176</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08893669970803623</v>
+        <v>0.105276829749313</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03612742041036657</v>
+        <v>0.04134476871196446</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1990846860.139368</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4823382276.843142</v>
+        <v>3368687208.203976</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1493031136734436</v>
+        <v>0.1219089232379984</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02795565531007782</v>
+        <v>0.03064451367262629</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>149</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2411691232.223628</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4579766415.794351</v>
+        <v>5730165728.797358</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1145782640541717</v>
+        <v>0.1167625809418249</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02528275492072465</v>
+        <v>0.02666251965841043</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>171</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2289883191.91168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5301556664.56988</v>
+        <v>5594599857.48812</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1153572820538011</v>
+        <v>0.143289241501893</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03347220013307902</v>
+        <v>0.04443537909618817</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>141</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2650778375.660189</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2581394328.023476</v>
+        <v>2622267922.305892</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1026766591136397</v>
+        <v>0.06745850289839324</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04486756653965596</v>
+        <v>0.03584202982998259</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>153</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1290697217.743868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5087841702.041392</v>
+        <v>5347765835.857227</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1038875406686029</v>
+        <v>0.1559939132425602</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03479424483102742</v>
+        <v>0.03179795072807614</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>152</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2543920912.75095</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1580445916.052866</v>
+        <v>1971419326.870087</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1110953211536862</v>
+        <v>0.1772419211452136</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05639006119258424</v>
+        <v>0.04314950982195113</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>790222908.7856635</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3464877812.988476</v>
+        <v>3415731716.557312</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1025256241851568</v>
+        <v>0.09850260862609463</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03075280311357595</v>
+        <v>0.03092591862275416</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>137</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1732438913.832185</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4903641480.781567</v>
+        <v>3835244673.120939</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1588868225794935</v>
+        <v>0.1642291986170399</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02826254291364604</v>
+        <v>0.02864725484030625</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>174</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2451820838.927581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2137220459.038623</v>
+        <v>2214617323.707131</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1081841562896479</v>
+        <v>0.07095793367393374</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04623397955938739</v>
+        <v>0.0364019491368405</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1068610153.763782</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3449048950.601059</v>
+        <v>3515482912.150357</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1037574769315278</v>
+        <v>0.111780800461522</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0425005425196156</v>
+        <v>0.03451177457681551</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>181</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1724524430.180353</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2631397398.674884</v>
+        <v>2814434821.241096</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1606183773124887</v>
+        <v>0.1383282327465111</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02753496529557795</v>
+        <v>0.02223582939859399</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>163</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1315698796.639016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2366415826.447556</v>
+        <v>2123661125.352293</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1649987386457432</v>
+        <v>0.1672366924531379</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03679989708693678</v>
+        <v>0.02986624165841671</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1183207843.146938</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5092511216.076842</v>
+        <v>4521588888.264359</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1151934709518729</v>
+        <v>0.1247683514159558</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02513101915632684</v>
+        <v>0.02374271861770058</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2546255638.60926</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2119299695.039556</v>
+        <v>2025951954.953421</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1176189316502408</v>
+        <v>0.165816565870486</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02086373846275806</v>
+        <v>0.02752716662134316</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1059649926.65204</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3485902000.094068</v>
+        <v>4297683672.79489</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1291026979846413</v>
+        <v>0.09451826167993528</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03732812519684507</v>
+        <v>0.05317739283708574</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>166</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1742951002.573698</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1586587581.421587</v>
+        <v>1885507913.331105</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1743938827268924</v>
+        <v>0.1317950184176004</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0357445259529537</v>
+        <v>0.02725811938585816</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>793293840.0838344</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3975361250.920924</v>
+        <v>5571852677.543111</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1033028732343276</v>
+        <v>0.1115409852955755</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0376269777429565</v>
+        <v>0.02596055829051428</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1987680623.742676</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4201739327.0664</v>
+        <v>4853288148.210414</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08977830952601736</v>
+        <v>0.1282426170515497</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03048411658125945</v>
+        <v>0.03096999150618074</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2100869634.264611</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4514664104.060539</v>
+        <v>5222334213.715004</v>
       </c>
       <c r="F82" t="n">
-        <v>0.213451160134895</v>
+        <v>0.2161432632394533</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02136435444683878</v>
+        <v>0.02147342957764306</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>168</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2257332063.071128</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2013572351.024259</v>
+        <v>2270196993.574959</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1526131676085232</v>
+        <v>0.1123761087873644</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03247702095942143</v>
+        <v>0.03285239227620122</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1006786162.536538</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2596222190.964267</v>
+        <v>2599349192.119496</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09798656344488754</v>
+        <v>0.08131787107584294</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04289217949829002</v>
+        <v>0.03357599418743304</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1298111013.204087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2272586745.593796</v>
+        <v>2846354146.607323</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1411797947726499</v>
+        <v>0.14973180435757</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03900498916045676</v>
+        <v>0.04864947589728706</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>180</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1136293352.691457</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2383004250.726826</v>
+        <v>2737018511.022683</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1689680959514168</v>
+        <v>0.1486380692485356</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02701276386380616</v>
+        <v>0.0262537692261232</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1191502206.269125</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1041399026.701666</v>
+        <v>1405459041.912558</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1348619878497087</v>
+        <v>0.1479981607557105</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03212908060863082</v>
+        <v>0.02675156139374795</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>520699528.3127811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2435288850.417407</v>
+        <v>3584688096.62239</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1603902558167067</v>
+        <v>0.1528477512407517</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03920263111176536</v>
+        <v>0.03543120643332633</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>190</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1217644399.856421</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3023839855.95959</v>
+        <v>2852913713.132253</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1077864558553715</v>
+        <v>0.1229695901421371</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0276783310272772</v>
+        <v>0.03741135107010776</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>162</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1511919964.357312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2031211219.097303</v>
+        <v>1785279200.075996</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1314646650330534</v>
+        <v>0.1372125809083103</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04664719701132938</v>
+        <v>0.05253747087523628</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1015605685.56336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2001619526.539718</v>
+        <v>1898355514.872552</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1665427338278405</v>
+        <v>0.1771042846347795</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04396835122708462</v>
+        <v>0.05159383810008189</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1000809735.332866</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2279262798.754466</v>
+        <v>1969885573.044986</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1023258292816347</v>
+        <v>0.08256552173758348</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03338552833777741</v>
+        <v>0.02914759768922916</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1139631366.683245</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4993419904.031298</v>
+        <v>4762870380.194098</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1114216055982745</v>
+        <v>0.1218971321175117</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03728705684102707</v>
+        <v>0.05056959150849022</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>142</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2496709888.426781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1620969271.016527</v>
+        <v>2202321455.487465</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1509624313561073</v>
+        <v>0.1382185858627905</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0287995694326531</v>
+        <v>0.04088745191625324</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>810484584.5197554</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3064772020.722739</v>
+        <v>2027930742.647433</v>
       </c>
       <c r="F95" t="n">
-        <v>0.112697496501446</v>
+        <v>0.125758959812014</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03911982500435009</v>
+        <v>0.05243944044405142</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1532386005.38589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1745750256.321882</v>
+        <v>1881390016.326913</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1012438404830841</v>
+        <v>0.1233519772967117</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0447447105987576</v>
+        <v>0.04616696769309223</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>872875142.2915653</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3799817789.661869</v>
+        <v>5053968520.88989</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1312282016782015</v>
+        <v>0.1345824108392107</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02777801231243237</v>
+        <v>0.02167637186552526</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>154</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1899908935.143992</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2475375894.981614</v>
+        <v>3223879708.856343</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08676729620124615</v>
+        <v>0.07963751531761054</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02953091871327101</v>
+        <v>0.03098083699842549</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1237687896.624459</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2689940047.864865</v>
+        <v>2446014484.317729</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1259815088698067</v>
+        <v>0.1467876453588266</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02582583431127735</v>
+        <v>0.02236745935369191</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>150</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1344969987.424941</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4467376253.893051</v>
+        <v>4650908995.064718</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1741082142838068</v>
+        <v>0.1470509182485922</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02451104967602598</v>
+        <v>0.01941351021627176</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>147</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2233688234.953895</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2239594362.257701</v>
+        <v>3263386624.811148</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1397595204249793</v>
+        <v>0.1835072103802957</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05106875690418809</v>
+        <v>0.03866897154728549</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>196</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1119797169.704185</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_479.xlsx
+++ b/output/fit_clients/fit_round_479.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1614948167.827217</v>
+        <v>1805540737.738161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07248575424794028</v>
+        <v>0.07890459444721422</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03455546815653433</v>
+        <v>0.03290750497667735</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2637351590.799317</v>
+        <v>1806640750.23829</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1340254442008771</v>
+        <v>0.112283346409183</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03904232461148589</v>
+        <v>0.03741416137888123</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4813674107.239821</v>
+        <v>4622401162.784017</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1101510704896188</v>
+        <v>0.146115523185554</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02561520165220264</v>
+        <v>0.03598876503521458</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3589731379.027464</v>
+        <v>3793041004.613257</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07425555806231621</v>
+        <v>0.1045275048932432</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04222977773730825</v>
+        <v>0.05066619533837034</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2121588059.8088</v>
+        <v>1950046966.235861</v>
       </c>
       <c r="F6" t="n">
-        <v>0.13184992364055</v>
+        <v>0.1209873731204911</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04357868762929151</v>
+        <v>0.0443257730707412</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2875641351.120994</v>
+        <v>2586291290.021085</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08202930818587421</v>
+        <v>0.06522075006951224</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03170346849762691</v>
+        <v>0.03464884034690865</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3903676085.157507</v>
+        <v>3632066127.982715</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1995169832873991</v>
+        <v>0.1644265827025843</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03298566199350227</v>
+        <v>0.02139844723587981</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1547336428.06351</v>
+        <v>2303846903.951657</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1505433551804221</v>
+        <v>0.1795060837457473</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02864335078611448</v>
+        <v>0.02357358750521415</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3919587955.958826</v>
+        <v>5666586322.661703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1457863632507251</v>
+        <v>0.1654216874114537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04348946147494767</v>
+        <v>0.04466040376840395</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2742098366.753642</v>
+        <v>4158299076.504385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1546560656826931</v>
+        <v>0.141330627512027</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04318330049564913</v>
+        <v>0.0356542504509528</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2798739107.297823</v>
+        <v>2117922685.183135</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1405375663587467</v>
+        <v>0.1241574456316742</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05266357056503992</v>
+        <v>0.03741816390097882</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4218949936.659073</v>
+        <v>3655213177.223074</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1012178431327738</v>
+        <v>0.09226181207525085</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0188901156644193</v>
+        <v>0.03115201860938888</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3235446742.143652</v>
+        <v>2562027150.88537</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1251505578947383</v>
+        <v>0.1787826848418794</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0420036663661912</v>
+        <v>0.03653252953530561</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1472974555.671012</v>
+        <v>1313557868.794075</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09899915725081634</v>
+        <v>0.07629792478833501</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03320721300478017</v>
+        <v>0.0324805748084018</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1949332507.922628</v>
+        <v>2573140182.845373</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08798788228261607</v>
+        <v>0.09935572627257895</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03520911227502846</v>
+        <v>0.0388780623872997</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4615276193.993473</v>
+        <v>4383561212.451322</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1529032486585871</v>
+        <v>0.1424760771218498</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03288345724299576</v>
+        <v>0.05313155515222454</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3291063608.652241</v>
+        <v>3025814365.048764</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1231990104794966</v>
+        <v>0.158746042190965</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02765655106718513</v>
+        <v>0.02152035095438221</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1096093197.0375</v>
+        <v>1319636722.664779</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1556236927571659</v>
+        <v>0.1423650463961805</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02500824854679602</v>
+        <v>0.02254302358601668</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2584023331.913639</v>
+        <v>2511124983.002656</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1263917526242975</v>
+        <v>0.1572796367708977</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02626071223411284</v>
+        <v>0.02929937638618031</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2681946341.373733</v>
+        <v>2211549339.642876</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06948312711439859</v>
+        <v>0.09370536623916101</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03037928315968648</v>
+        <v>0.03188851267777035</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3535140818.108157</v>
+        <v>2920125160.299788</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1329205970494754</v>
+        <v>0.09256835699163686</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04757829574555063</v>
+        <v>0.03832217633586273</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>952005028.0393158</v>
+        <v>1540000200.89995</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1214041071450701</v>
+        <v>0.119035656659698</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04244564660105109</v>
+        <v>0.03599141284812018</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3025458853.35844</v>
+        <v>3551872044.928776</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1290098543698561</v>
+        <v>0.1017628646881456</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02322777069440132</v>
+        <v>0.03766259557814439</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1164930446.105386</v>
+        <v>1272541521.752839</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09310614894760209</v>
+        <v>0.1214348855616246</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02086581668680475</v>
+        <v>0.02322258719406366</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>885397496.2734922</v>
+        <v>1106334406.949656</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07654355092151016</v>
+        <v>0.08703953658163721</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02834724462336471</v>
+        <v>0.03510680649489483</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3657256057.081649</v>
+        <v>4334472177.343114</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1494148844548656</v>
+        <v>0.1235571741241152</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0252280937509737</v>
+        <v>0.02649802199313362</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3056665157.361334</v>
+        <v>2822707102.236109</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1419959844780363</v>
+        <v>0.1095067085465494</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03716427555400505</v>
+        <v>0.04329089920112566</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5471855055.071439</v>
+        <v>5477031223.236651</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1132714514246561</v>
+        <v>0.1117244082058665</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04150808747738823</v>
+        <v>0.03945217830765109</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2229111608.811377</v>
+        <v>2356047209.499646</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1380973118999644</v>
+        <v>0.1228544323391698</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02590219263010357</v>
+        <v>0.02448924894215239</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1481302213.780793</v>
+        <v>1181572838.646739</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08839309650897037</v>
+        <v>0.08538248372621925</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05046505976256564</v>
+        <v>0.04229553624824968</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1374996846.851673</v>
+        <v>1410491257.508279</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09796825607085254</v>
+        <v>0.09145034902725915</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02667354257501017</v>
+        <v>0.0315696875648636</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2272913119.771322</v>
+        <v>2040374284.355456</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1507817876974371</v>
+        <v>0.156484695821328</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05530753338086007</v>
+        <v>0.05187031082479079</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1195696720.433142</v>
+        <v>1169705110.400726</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08500348435333543</v>
+        <v>0.08257280632953669</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02180749649980486</v>
+        <v>0.01841669653144563</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1159600309.960774</v>
+        <v>1163237726.751758</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07145019550986051</v>
+        <v>0.09952167839973458</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02988566269755865</v>
+        <v>0.02732320179332115</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3075913192.499094</v>
+        <v>2146575287.326744</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1704425773808569</v>
+        <v>0.1122294601547883</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01853698918940999</v>
+        <v>0.01984011281823807</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2025498341.287527</v>
+        <v>2594428132.263815</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1028508360207432</v>
+        <v>0.09266503338922834</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03496748114367523</v>
+        <v>0.02818590493856715</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2192635931.479819</v>
+        <v>1839726400.862953</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0966707958835797</v>
+        <v>0.07478113938350332</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03004829161083615</v>
+        <v>0.03830078325823377</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1772669463.832992</v>
+        <v>2205469678.18796</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1902819583062924</v>
+        <v>0.1365114143966615</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02981846165239388</v>
+        <v>0.02752902061456844</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1450578689.810066</v>
+        <v>1152661443.946258</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1417576954395615</v>
+        <v>0.1450626695219794</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04496193392711968</v>
+        <v>0.04644891869514359</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2241883169.906602</v>
+        <v>2642243732.891468</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1411383741779302</v>
+        <v>0.1508241948194265</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03296072894047072</v>
+        <v>0.04464202918267581</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3925815470.39019</v>
+        <v>4070112265.662479</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1090892022592138</v>
+        <v>0.1211877993131806</v>
       </c>
       <c r="G42" t="n">
-        <v>0.039403202867988</v>
+        <v>0.03289606532823745</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3007983747.394956</v>
+        <v>2674259196.645365</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1886217677887999</v>
+        <v>0.1762964301972413</v>
       </c>
       <c r="G43" t="n">
-        <v>0.020823131235347</v>
+        <v>0.01952178765317631</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1709767111.830313</v>
+        <v>2002343084.081668</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08346117496236251</v>
+        <v>0.1016700311197773</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02274817150712222</v>
+        <v>0.03600304260066217</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2064221672.503822</v>
+        <v>2243692786.335129</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1593234366994145</v>
+        <v>0.1201492242984668</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04250877934428195</v>
+        <v>0.04775197483248059</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4695902363.156507</v>
+        <v>3654645417.18701</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1546138855497181</v>
+        <v>0.1172355351552394</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05856128713541925</v>
+        <v>0.05133812866768946</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4214166941.966694</v>
+        <v>3769506379.030944</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1608567006740196</v>
+        <v>0.1753688875507932</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04374303099825375</v>
+        <v>0.05796072578271181</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4700921974.005415</v>
+        <v>4208181514.928558</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08969913216722825</v>
+        <v>0.08627535681445457</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03352918099804617</v>
+        <v>0.03308895618704296</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1580054281.692245</v>
+        <v>1777259022.150044</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1640543069508152</v>
+        <v>0.1405750326057187</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02973934114939561</v>
+        <v>0.04157251316734908</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4058769311.089389</v>
+        <v>4173275353.201693</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1643986746571834</v>
+        <v>0.1270811061404612</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04979185812055346</v>
+        <v>0.05072240877553549</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1192225909.348163</v>
+        <v>1303829111.244959</v>
       </c>
       <c r="F51" t="n">
-        <v>0.157183370693189</v>
+        <v>0.1693971633562112</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04890267135045116</v>
+        <v>0.03908304736485803</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4664516252.087259</v>
+        <v>3336383450.994742</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1352278712224853</v>
+        <v>0.1311379593153767</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03935443897787958</v>
+        <v>0.05907818910060048</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2842692976.048532</v>
+        <v>3149870938.565386</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1767575516194816</v>
+        <v>0.1705028087580229</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02648227069524655</v>
+        <v>0.03173086671384825</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4972023140.436613</v>
+        <v>3057936780.972755</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1321682499031425</v>
+        <v>0.1560918357571424</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04849082523265586</v>
+        <v>0.04610882021834116</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4112022266.627007</v>
+        <v>4035672616.044424</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2169561792276746</v>
+        <v>0.2004815396364357</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02214110087815437</v>
+        <v>0.03206732108134413</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1620275342.403046</v>
+        <v>1872628049.250744</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1158725682778561</v>
+        <v>0.1288690438710985</v>
       </c>
       <c r="G56" t="n">
-        <v>0.052671072778281</v>
+        <v>0.05174221831033809</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2946449389.858941</v>
+        <v>2851112766.256185</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1760464340440616</v>
+        <v>0.1707954447158882</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01683583774636322</v>
+        <v>0.01940019703575769</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1273460080.579391</v>
+        <v>1640149786.986608</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1858228880397788</v>
+        <v>0.1927105665475108</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02738769287562072</v>
+        <v>0.03771053769501481</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4759197829.454521</v>
+        <v>4626100506.413599</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08927777294895235</v>
+        <v>0.1217911446620897</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04008677640051741</v>
+        <v>0.03883663424698177</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3279952118.851373</v>
+        <v>2561390871.042665</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1641267279789239</v>
+        <v>0.1350332866171235</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02236570019738318</v>
+        <v>0.03099566745467423</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2212828305.354451</v>
+        <v>2479167986.659914</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1324579318855878</v>
+        <v>0.1428949962495634</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02092493586599817</v>
+        <v>0.03004130362990193</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1466830437.517958</v>
+        <v>1905262187.286464</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1446585454170351</v>
+        <v>0.1456493513951838</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04073433570849794</v>
+        <v>0.04004419673840197</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5090433810.700176</v>
+        <v>3814654032.937974</v>
       </c>
       <c r="F63" t="n">
-        <v>0.105276829749313</v>
+        <v>0.0842945788635512</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04134476871196446</v>
+        <v>0.03325257220469035</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3368687208.203976</v>
+        <v>5029940925.295565</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1219089232379984</v>
+        <v>0.1755194739446021</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03064451367262629</v>
+        <v>0.0345673613979832</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5730165728.797358</v>
+        <v>4941892676.363326</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1167625809418249</v>
+        <v>0.1265081388304534</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02666251965841043</v>
+        <v>0.02920938456521268</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5594599857.48812</v>
+        <v>4271209370.061474</v>
       </c>
       <c r="F66" t="n">
-        <v>0.143289241501893</v>
+        <v>0.1474303131469175</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04443537909618817</v>
+        <v>0.03361618205768686</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2622267922.305892</v>
+        <v>2621487449.829592</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06745850289839324</v>
+        <v>0.0647449228145701</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03584202982998259</v>
+        <v>0.04403087364664682</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5347765835.857227</v>
+        <v>4135360052.649568</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1559939132425602</v>
+        <v>0.1132760985314491</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03179795072807614</v>
+        <v>0.04961090333663274</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1971419326.870087</v>
+        <v>2101336336.286569</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1772419211452136</v>
+        <v>0.1374747731989836</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04314950982195113</v>
+        <v>0.03956182170872134</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3415731716.557312</v>
+        <v>2371624102.894113</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09850260862609463</v>
+        <v>0.08095339034420439</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03092591862275416</v>
+        <v>0.04584403074150446</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3835244673.120939</v>
+        <v>3896677529.241197</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1642291986170399</v>
+        <v>0.1662074214166922</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02864725484030625</v>
+        <v>0.02628914142445432</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2214617323.707131</v>
+        <v>1843809756.765524</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07095793367393374</v>
+        <v>0.08279457866526801</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0364019491368405</v>
+        <v>0.03471420578370579</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3515482912.150357</v>
+        <v>3231559156.399952</v>
       </c>
       <c r="F73" t="n">
-        <v>0.111780800461522</v>
+        <v>0.1038249220963281</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03451177457681551</v>
+        <v>0.04085440719815731</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2814434821.241096</v>
+        <v>3168372223.101294</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1383282327465111</v>
+        <v>0.1567770809346068</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02223582939859399</v>
+        <v>0.03383297295956787</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2123661125.352293</v>
+        <v>2406640494.357936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1672366924531379</v>
+        <v>0.1115712548292419</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02986624165841671</v>
+        <v>0.0344083609526568</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4521588888.264359</v>
+        <v>4893129226.174101</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1247683514159558</v>
+        <v>0.1100390855281646</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02374271861770058</v>
+        <v>0.03159025548026945</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2025951954.953421</v>
+        <v>2186255072.10185</v>
       </c>
       <c r="F77" t="n">
-        <v>0.165816565870486</v>
+        <v>0.1163799756335209</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02752716662134316</v>
+        <v>0.02107823438800456</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4297683672.79489</v>
+        <v>3004782353.119294</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09451826167993528</v>
+        <v>0.1138988081872088</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05317739283708574</v>
+        <v>0.04404202471334242</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1885507913.331105</v>
+        <v>1308581936.703221</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1317950184176004</v>
+        <v>0.1418591922369892</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02725811938585816</v>
+        <v>0.04072925327026657</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5571852677.543111</v>
+        <v>3817890694.135699</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1115409852955755</v>
+        <v>0.08829075644516658</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02596055829051428</v>
+        <v>0.03519836606392111</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4853288148.210414</v>
+        <v>3532961266.882478</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1282426170515497</v>
+        <v>0.08256848460340323</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03096999150618074</v>
+        <v>0.02194803469316616</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5222334213.715004</v>
+        <v>4464887644.802194</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2161432632394533</v>
+        <v>0.2112798935286195</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02147342957764306</v>
+        <v>0.02022050454695155</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2270196993.574959</v>
+        <v>2093216980.132164</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1123761087873644</v>
+        <v>0.1306323913263572</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03285239227620122</v>
+        <v>0.03716243671106522</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2599349192.119496</v>
+        <v>2174578460.604779</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08131787107584294</v>
+        <v>0.09859808086102897</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03357599418743304</v>
+        <v>0.04431522319123783</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2846354146.607323</v>
+        <v>3158731875.154374</v>
       </c>
       <c r="F85" t="n">
-        <v>0.14973180435757</v>
+        <v>0.1359665913879346</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04864947589728706</v>
+        <v>0.04577383515256097</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2737018511.022683</v>
+        <v>2559819880.023262</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1486380692485356</v>
+        <v>0.123263167824816</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0262537692261232</v>
+        <v>0.02400491416913765</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1405459041.912558</v>
+        <v>1340387993.59868</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1479981607557105</v>
+        <v>0.1869337280879796</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02675156139374795</v>
+        <v>0.03783617558453656</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3584688096.62239</v>
+        <v>2686640760.304687</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1528477512407517</v>
+        <v>0.1344389205440602</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03543120643332633</v>
+        <v>0.0364832819892083</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2852913713.132253</v>
+        <v>2492991772.797884</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1229695901421371</v>
+        <v>0.1551305192777132</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03741135107010776</v>
+        <v>0.0266569315160501</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1785279200.075996</v>
+        <v>1579587353.294195</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1372125809083103</v>
+        <v>0.0877863085758066</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05253747087523628</v>
+        <v>0.04748441709062581</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1898355514.872552</v>
+        <v>1976225283.843969</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1771042846347795</v>
+        <v>0.1459160280323325</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05159383810008189</v>
+        <v>0.04752519082886168</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1969885573.044986</v>
+        <v>2015067961.265775</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08256552173758348</v>
+        <v>0.1007411438003857</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02914759768922916</v>
+        <v>0.04702252017539475</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4762870380.194098</v>
+        <v>3288939093.815535</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1218971321175117</v>
+        <v>0.1244137146312267</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05056959150849022</v>
+        <v>0.03370078326472133</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2202321455.487465</v>
+        <v>1764745096.521587</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1382185858627905</v>
+        <v>0.117707560388435</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04088745191625324</v>
+        <v>0.04273254830369604</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2027930742.647433</v>
+        <v>3151322962.974893</v>
       </c>
       <c r="F95" t="n">
-        <v>0.125758959812014</v>
+        <v>0.126763290552311</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05243944044405142</v>
+        <v>0.04728676083770984</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1881390016.326913</v>
+        <v>1662298722.833974</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1233519772967117</v>
+        <v>0.1362061375643906</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04616696769309223</v>
+        <v>0.03270867996199682</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5053968520.88989</v>
+        <v>5008029460.4237</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1345824108392107</v>
+        <v>0.176077832179518</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02167637186552526</v>
+        <v>0.02822659875327809</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3223879708.856343</v>
+        <v>2986835812.735715</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07963751531761054</v>
+        <v>0.07910158149092392</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03098083699842549</v>
+        <v>0.02272324517686657</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2446014484.317729</v>
+        <v>3108467845.942112</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1467876453588266</v>
+        <v>0.1467608692021642</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02236745935369191</v>
+        <v>0.02136903162106861</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4650908995.064718</v>
+        <v>3311436942.153849</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1470509182485922</v>
+        <v>0.1633250398548062</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01941351021627176</v>
+        <v>0.01852546787503726</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3263386624.811148</v>
+        <v>2290238103.515727</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1835072103802957</v>
+        <v>0.1959749780935914</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03866897154728549</v>
+        <v>0.03793149072548117</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_479.xlsx
+++ b/output/fit_clients/fit_round_479.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1805540737.738161</v>
+        <v>1608126390.164591</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07890459444721422</v>
+        <v>0.07384795680865185</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03290750497667735</v>
+        <v>0.04037907774948812</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1806640750.23829</v>
+        <v>2379906388.248754</v>
       </c>
       <c r="F3" t="n">
-        <v>0.112283346409183</v>
+        <v>0.1224853540648378</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03741416137888123</v>
+        <v>0.03667424988158619</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4622401162.784017</v>
+        <v>4401880581.587323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.146115523185554</v>
+        <v>0.1511933194087948</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03598876503521458</v>
+        <v>0.0348910680822555</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>242</v>
+      </c>
+      <c r="J4" t="n">
+        <v>478</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.6199870112619</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3793041004.613257</v>
+        <v>2610035537.489769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1045275048932432</v>
+        <v>0.08362074302868902</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05066619533837034</v>
+        <v>0.05085009356232816</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>202</v>
+      </c>
+      <c r="J5" t="n">
+        <v>478</v>
+      </c>
+      <c r="K5" t="n">
+        <v>19.86037466987835</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1950046966.235861</v>
+        <v>2043985631.832015</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1209873731204911</v>
+        <v>0.1212282332602682</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0443257730707412</v>
+        <v>0.03750500420315764</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2586291290.021085</v>
+        <v>2986479744.145759</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06522075006951224</v>
+        <v>0.08291861190526445</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03464884034690865</v>
+        <v>0.03060056948945701</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3632066127.982715</v>
+        <v>3426402050.255797</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1644265827025843</v>
+        <v>0.2092659448431283</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02139844723587981</v>
+        <v>0.03105323321375226</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2303846903.951657</v>
+        <v>1424946530.846184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1795060837457473</v>
+        <v>0.1573137674952239</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02357358750521415</v>
+        <v>0.03312218607829196</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5666586322.661703</v>
+        <v>5768618798.919731</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1654216874114537</v>
+        <v>0.1903094895567207</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04466040376840395</v>
+        <v>0.04085242038380501</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>365</v>
+      </c>
+      <c r="J10" t="n">
+        <v>478</v>
+      </c>
+      <c r="K10" t="n">
+        <v>28.65377679479943</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4158299076.504385</v>
+        <v>3762463782.244627</v>
       </c>
       <c r="F11" t="n">
-        <v>0.141330627512027</v>
+        <v>0.1851994080582135</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0356542504509528</v>
+        <v>0.04922298762142373</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>199</v>
+      </c>
+      <c r="J11" t="n">
+        <v>477</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2117922685.183135</v>
+        <v>2557609099.790271</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1241574456316742</v>
+        <v>0.1398528311185102</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03741816390097882</v>
+        <v>0.05338577752226591</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3655213177.223074</v>
+        <v>4106411614.275191</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09226181207525085</v>
+        <v>0.1017501845387086</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03115201860938888</v>
+        <v>0.02797074465605842</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>248</v>
+      </c>
+      <c r="J13" t="n">
+        <v>478</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30.09876314260337</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2562027150.88537</v>
+        <v>2638497683.015802</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1787826848418794</v>
+        <v>0.1291734092700483</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03653252953530561</v>
+        <v>0.03201413331863627</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>109</v>
+      </c>
+      <c r="J14" t="n">
+        <v>476</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1313557868.794075</v>
+        <v>1499516312.843274</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07629792478833501</v>
+        <v>0.08120508501626793</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0324805748084018</v>
+        <v>0.03002657085440627</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2573140182.845373</v>
+        <v>1858533703.004273</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09935572627257895</v>
+        <v>0.1094204265053827</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0388780623872997</v>
+        <v>0.03255887044443901</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4383561212.451322</v>
+        <v>3783594480.43177</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1424760771218498</v>
+        <v>0.1061458441045678</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05313155515222454</v>
+        <v>0.03809116443059652</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>234</v>
+      </c>
+      <c r="J17" t="n">
+        <v>477</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3025814365.048764</v>
+        <v>3971293438.293293</v>
       </c>
       <c r="F18" t="n">
-        <v>0.158746042190965</v>
+        <v>0.1441015445467067</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02152035095438221</v>
+        <v>0.02464940592077296</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>128</v>
+      </c>
+      <c r="J18" t="n">
+        <v>479</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1319636722.664779</v>
+        <v>1092465859.752803</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1423650463961805</v>
+        <v>0.1456165623944145</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02254302358601668</v>
+        <v>0.02569248783931868</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2511124983.002656</v>
+        <v>2724854801.750628</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1572796367708977</v>
+        <v>0.1404123119524109</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02929937638618031</v>
+        <v>0.02257728680329009</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2211549339.642876</v>
+        <v>1650488165.55489</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09370536623916101</v>
+        <v>0.08349645963179902</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03188851267777035</v>
+        <v>0.03658309847048941</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2920125160.299788</v>
+        <v>2804861704.86147</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09256835699163686</v>
+        <v>0.1163370134950177</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03832217633586273</v>
+        <v>0.04181005224093254</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>141</v>
+      </c>
+      <c r="J22" t="n">
+        <v>478</v>
+      </c>
+      <c r="K22" t="n">
+        <v>25.04838421688604</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1540000200.89995</v>
+        <v>1231986499.201873</v>
       </c>
       <c r="F23" t="n">
-        <v>0.119035656659698</v>
+        <v>0.1248020639678934</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03599141284812018</v>
+        <v>0.03547634059725347</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3551872044.928776</v>
+        <v>4112208564.280197</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1017628646881456</v>
+        <v>0.1093954220671407</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03766259557814439</v>
+        <v>0.02437728027174377</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>151</v>
+      </c>
+      <c r="J24" t="n">
+        <v>479</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1272541521.752839</v>
+        <v>1141112909.527408</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1214348855616246</v>
+        <v>0.09653542129800641</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02322258719406366</v>
+        <v>0.02014025410026371</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1106334406.949656</v>
+        <v>992514434.762876</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08703953658163721</v>
+        <v>0.09777480196074013</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03510680649489483</v>
+        <v>0.03344539643755538</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4334472177.343114</v>
+        <v>3830816655.079941</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1235571741241152</v>
+        <v>0.1162904044098807</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02649802199313362</v>
+        <v>0.01740730090176664</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>213</v>
+      </c>
+      <c r="J27" t="n">
+        <v>478</v>
+      </c>
+      <c r="K27" t="n">
+        <v>30.28131850425376</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2822707102.236109</v>
+        <v>3796583582.513797</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1095067085465494</v>
+        <v>0.1046100062952245</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04329089920112566</v>
+        <v>0.03155912243893391</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>117</v>
+      </c>
+      <c r="J28" t="n">
+        <v>479</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5477031223.236651</v>
+        <v>5538459358.852578</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1117244082058665</v>
+        <v>0.09965221482286245</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03945217830765109</v>
+        <v>0.04531914654352694</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>380</v>
+      </c>
+      <c r="J29" t="n">
+        <v>479</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2356047209.499646</v>
+        <v>1700917249.536782</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1228544323391698</v>
+        <v>0.1252206801950513</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02448924894215239</v>
+        <v>0.03850987968100771</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1181572838.646739</v>
+        <v>1101746418.104152</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08538248372621925</v>
+        <v>0.09748086200931108</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04229553624824968</v>
+        <v>0.04951517138708227</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1410491257.508279</v>
+        <v>1369009996.061732</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09145034902725915</v>
+        <v>0.1192362167218344</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0315696875648636</v>
+        <v>0.03829307297012421</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2040374284.355456</v>
+        <v>2212908786.939449</v>
       </c>
       <c r="F33" t="n">
-        <v>0.156484695821328</v>
+        <v>0.2051840617088335</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05187031082479079</v>
+        <v>0.05367380808850977</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1169705110.400726</v>
+        <v>1191156065.105898</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08257280632953669</v>
+        <v>0.09540367168757993</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01841669653144563</v>
+        <v>0.01823696141599711</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1163237726.751758</v>
+        <v>1007007556.866627</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09952167839973458</v>
+        <v>0.09260621486899062</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02732320179332115</v>
+        <v>0.04339813207763227</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2146575287.326744</v>
+        <v>3118046662.715248</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1122294601547883</v>
+        <v>0.1576179022258109</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01984011281823807</v>
+        <v>0.02704742892911395</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2594428132.263815</v>
+        <v>2337214454.956854</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09266503338922834</v>
+        <v>0.1025812142540116</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02818590493856715</v>
+        <v>0.04240660016213007</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1839726400.862953</v>
+        <v>1510509760.679342</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07478113938350332</v>
+        <v>0.1034255595695691</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03830078325823377</v>
+        <v>0.03319458178469956</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2205469678.18796</v>
+        <v>2026291575.511557</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1365114143966615</v>
+        <v>0.1837424408480993</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02752902061456844</v>
+        <v>0.02325987094325534</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1152661443.946258</v>
+        <v>1156355885.139815</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1450626695219794</v>
+        <v>0.1589826953787512</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04644891869514359</v>
+        <v>0.04870697235440054</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2642243732.891468</v>
+        <v>2673809956.251914</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1508241948194265</v>
+        <v>0.1628942630237947</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04464202918267581</v>
+        <v>0.04592228733825476</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1913,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4070112265.662479</v>
+        <v>2946100106.013545</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1211877993131806</v>
+        <v>0.07882541359427089</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03289606532823745</v>
+        <v>0.03434938308668711</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>208</v>
+      </c>
+      <c r="J42" t="n">
+        <v>478</v>
+      </c>
+      <c r="K42" t="n">
+        <v>23.29821244264033</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2674259196.645365</v>
+        <v>2881899625.019817</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1762964301972413</v>
+        <v>0.1350062358993888</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01952178765317631</v>
+        <v>0.01649242565900097</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2002343084.081668</v>
+        <v>1549403173.203849</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1016700311197773</v>
+        <v>0.09669314440500701</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03600304260066217</v>
+        <v>0.02300097725357467</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2243692786.335129</v>
+        <v>1803863369.36989</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1201492242984668</v>
+        <v>0.19490216088486</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04775197483248059</v>
+        <v>0.04916833749327881</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3654645417.18701</v>
+        <v>4453577142.584044</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1172355351552394</v>
+        <v>0.1478894735930486</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05133812866768946</v>
+        <v>0.05855168860974515</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>282</v>
+      </c>
+      <c r="J46" t="n">
+        <v>479</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3769506379.030944</v>
+        <v>3156915360.791905</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1753688875507932</v>
+        <v>0.1803082263531347</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05796072578271181</v>
+        <v>0.04465743495060742</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>217</v>
+      </c>
+      <c r="J47" t="n">
+        <v>478</v>
+      </c>
+      <c r="K47" t="n">
+        <v>22.044056261122</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4208181514.928558</v>
+        <v>3848030796.538333</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08627535681445457</v>
+        <v>0.0808153395558134</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03308895618704296</v>
+        <v>0.03880620571194535</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>240</v>
+      </c>
+      <c r="J48" t="n">
+        <v>479</v>
+      </c>
+      <c r="K48" t="n">
+        <v>31.18753844493066</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1777259022.150044</v>
+        <v>1814191035.885314</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1405750326057187</v>
+        <v>0.1279917187129791</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04157251316734908</v>
+        <v>0.03640504022735565</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4173275353.201693</v>
+        <v>4069630360.268827</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1270811061404612</v>
+        <v>0.1111436098916914</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05072240877553549</v>
+        <v>0.05056178534463455</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>171</v>
+      </c>
+      <c r="J50" t="n">
+        <v>479</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1303829111.244959</v>
+        <v>1352717246.176082</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1693971633562112</v>
+        <v>0.1499328944185406</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03908304736485803</v>
+        <v>0.04033423227821964</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3336383450.994742</v>
+        <v>4261084849.182211</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1311379593153767</v>
+        <v>0.1256192055006253</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05907818910060048</v>
+        <v>0.04717596255919995</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>268</v>
+      </c>
+      <c r="J52" t="n">
+        <v>479</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3149870938.565386</v>
+        <v>3459373676.678726</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1705028087580229</v>
+        <v>0.142521333210143</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03173086671384825</v>
+        <v>0.02349506639144117</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3057936780.972755</v>
+        <v>4831764932.738285</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1560918357571424</v>
+        <v>0.1116808920850794</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04610882021834116</v>
+        <v>0.03757787534315282</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>252</v>
+      </c>
+      <c r="J54" t="n">
+        <v>479</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4035672616.044424</v>
+        <v>4638822739.602067</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2004815396364357</v>
+        <v>0.1568639791323948</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03206732108134413</v>
+        <v>0.0197469748649908</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>237</v>
+      </c>
+      <c r="J55" t="n">
+        <v>478</v>
+      </c>
+      <c r="K55" t="n">
+        <v>31.17301781586995</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1872628049.250744</v>
+        <v>1410068465.184303</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1288690438710985</v>
+        <v>0.1023444805315687</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05174221831033809</v>
+        <v>0.05196163164590106</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2851112766.256185</v>
+        <v>3729742597.733505</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1707954447158882</v>
+        <v>0.1246687018061389</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01940019703575769</v>
+        <v>0.02505663202499547</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>206</v>
+      </c>
+      <c r="J57" t="n">
+        <v>479</v>
+      </c>
+      <c r="K57" t="n">
+        <v>33.80277294848926</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1640149786.986608</v>
+        <v>1741847681.974882</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1927105665475108</v>
+        <v>0.1614384435621397</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03771053769501481</v>
+        <v>0.0372832795198055</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4626100506.413599</v>
+        <v>5152660937.397861</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1217911446620897</v>
+        <v>0.1060540175165586</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03883663424698177</v>
+        <v>0.04796268709956564</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>234</v>
+      </c>
+      <c r="J59" t="n">
+        <v>479</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2561390871.042665</v>
+        <v>3669020017.908457</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1350332866171235</v>
+        <v>0.1596786827023377</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03099566745467423</v>
+        <v>0.03170022631505272</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>97</v>
+      </c>
+      <c r="J60" t="n">
+        <v>477</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2479167986.659914</v>
+        <v>3064638785.32939</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1428949962495634</v>
+        <v>0.1280926097629884</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03004130362990193</v>
+        <v>0.03123477575229748</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1905262187.286464</v>
+        <v>2108653023.468399</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1456493513951838</v>
+        <v>0.1935108023604289</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04004419673840197</v>
+        <v>0.0388135636828554</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3814654032.937974</v>
+        <v>4150890038.803519</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0842945788635512</v>
+        <v>0.07490648413057474</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03325257220469035</v>
+        <v>0.04492709735840673</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>239</v>
+      </c>
+      <c r="J63" t="n">
+        <v>478</v>
+      </c>
+      <c r="K63" t="n">
+        <v>29.93808088684606</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5029940925.295565</v>
+        <v>3375715376.94465</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1755194739446021</v>
+        <v>0.1512618362628655</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0345673613979832</v>
+        <v>0.03232598189099856</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>239</v>
+      </c>
+      <c r="J64" t="n">
+        <v>477</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2730,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4941892676.363326</v>
+        <v>3931537269.351755</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1265081388304534</v>
+        <v>0.1162391915646643</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02920938456521268</v>
+        <v>0.02822368553218117</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>337</v>
+      </c>
+      <c r="J65" t="n">
+        <v>478</v>
+      </c>
+      <c r="K65" t="n">
+        <v>29.47142929691651</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4271209370.061474</v>
+        <v>5080228499.786451</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1474303131469175</v>
+        <v>0.1124728148826185</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03361618205768686</v>
+        <v>0.0396249669995443</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>236</v>
+      </c>
+      <c r="J66" t="n">
+        <v>479</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2621487449.829592</v>
+        <v>3365065787.138664</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0647449228145701</v>
+        <v>0.07093117734413516</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04403087364664682</v>
+        <v>0.04273549054097109</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4135360052.649568</v>
+        <v>5494817356.745477</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1132760985314491</v>
+        <v>0.1127882563433915</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04961090333663274</v>
+        <v>0.04326020725369891</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>260</v>
+      </c>
+      <c r="J68" t="n">
+        <v>479</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2101336336.286569</v>
+        <v>2024720425.977717</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1374747731989836</v>
+        <v>0.1481727707424693</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03956182170872134</v>
+        <v>0.06027884144032333</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2371624102.894113</v>
+        <v>2609702496.414736</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08095339034420439</v>
+        <v>0.08937430885154045</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04584403074150446</v>
+        <v>0.03930953449112402</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3896677529.241197</v>
+        <v>3654578291.497305</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1662074214166922</v>
+        <v>0.1772118082349202</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02628914142445432</v>
+        <v>0.02568767056643708</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>324</v>
+      </c>
+      <c r="J71" t="n">
+        <v>478</v>
+      </c>
+      <c r="K71" t="n">
+        <v>28.77738145641341</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1843809756.765524</v>
+        <v>1828685634.474004</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08279457866526801</v>
+        <v>0.08498968077438404</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03471420578370579</v>
+        <v>0.03592559978658948</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3231559156.399952</v>
+        <v>2187154267.941335</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1038249220963281</v>
+        <v>0.08240524149635949</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04085440719815731</v>
+        <v>0.04546566626255372</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>44</v>
+      </c>
+      <c r="J73" t="n">
+        <v>477</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3168372223.101294</v>
+        <v>2578134814.477281</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1567770809346068</v>
+        <v>0.1504283585320958</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03383297295956787</v>
+        <v>0.03189574390664013</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>142</v>
+      </c>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2406640494.357936</v>
+        <v>2463958436.91645</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1115712548292419</v>
+        <v>0.1048286057856175</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0344083609526568</v>
+        <v>0.03302049729537038</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4893129226.174101</v>
+        <v>3610109813.619491</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1100390855281646</v>
+        <v>0.08715639029738165</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03159025548026945</v>
+        <v>0.03381164016351754</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>229</v>
+      </c>
+      <c r="J76" t="n">
+        <v>478</v>
+      </c>
+      <c r="K76" t="n">
+        <v>29.57284029760655</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2186255072.10185</v>
+        <v>1427080326.219923</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1163799756335209</v>
+        <v>0.137838747344026</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02107823438800456</v>
+        <v>0.02635356940747761</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3004782353.119294</v>
+        <v>4190110836.632587</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1138988081872088</v>
+        <v>0.08636683962699654</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04404202471334242</v>
+        <v>0.05609714676479678</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>238</v>
+      </c>
+      <c r="J78" t="n">
+        <v>479</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1308581936.703221</v>
+        <v>1260773242.377423</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1418591922369892</v>
+        <v>0.1304878727021594</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04072925327026657</v>
+        <v>0.02666415172101323</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3817890694.135699</v>
+        <v>3651039305.243871</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08829075644516658</v>
+        <v>0.1090256286879607</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03519836606392111</v>
+        <v>0.02933354180047557</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>234</v>
+      </c>
+      <c r="J80" t="n">
+        <v>478</v>
+      </c>
+      <c r="K80" t="n">
+        <v>27.82478045940452</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3532961266.882478</v>
+        <v>4182133617.910378</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08256848460340323</v>
+        <v>0.1277109785636988</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02194803469316616</v>
+        <v>0.02423305055771807</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>223</v>
+      </c>
+      <c r="J81" t="n">
+        <v>479</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4464887644.802194</v>
+        <v>5650993333.769095</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2112798935286195</v>
+        <v>0.1370665763160175</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02022050454695155</v>
+        <v>0.02851126009984388</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>315</v>
+      </c>
+      <c r="J82" t="n">
+        <v>479</v>
+      </c>
+      <c r="K82" t="n">
+        <v>31.27275218916546</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2093216980.132164</v>
+        <v>1809032847.742196</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1306323913263572</v>
+        <v>0.1314815403126174</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03716243671106522</v>
+        <v>0.04198582877386205</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2174578460.604779</v>
+        <v>2040169389.560357</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09859808086102897</v>
+        <v>0.08967131552446521</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04431522319123783</v>
+        <v>0.04514424782529541</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3158731875.154374</v>
+        <v>3328166596.051027</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1359665913879346</v>
+        <v>0.1634644816850719</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04577383515256097</v>
+        <v>0.05244762425713244</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>71</v>
+      </c>
+      <c r="J85" t="n">
+        <v>479</v>
+      </c>
+      <c r="K85" t="n">
+        <v>49.12497642472398</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2559819880.023262</v>
+        <v>2103447591.693466</v>
       </c>
       <c r="F86" t="n">
-        <v>0.123263167824816</v>
+        <v>0.1282878771721816</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02400491416913765</v>
+        <v>0.02217517927306869</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1340387993.59868</v>
+        <v>1366342053.617767</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1869337280879796</v>
+        <v>0.1340540396683756</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03783617558453656</v>
+        <v>0.04058170120583567</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2686640760.304687</v>
+        <v>2294322428.187536</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1344389205440602</v>
+        <v>0.1723321911902453</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0364832819892083</v>
+        <v>0.02682153899878895</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>67</v>
+      </c>
+      <c r="J88" t="n">
+        <v>476</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2492991772.797884</v>
+        <v>2786584868.65692</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1551305192777132</v>
+        <v>0.1054749682942938</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0266569315160501</v>
+        <v>0.02838799494007796</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1579587353.294195</v>
+        <v>1813258406.203847</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0877863085758066</v>
+        <v>0.1135075534939349</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04748441709062581</v>
+        <v>0.03502503662345709</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1976225283.843969</v>
+        <v>1907911944.823979</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1459160280323325</v>
+        <v>0.1640849507029126</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04752519082886168</v>
+        <v>0.04941842293077212</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2015067961.265775</v>
+        <v>2669344981.587867</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1007411438003857</v>
+        <v>0.06865649130846814</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04702252017539475</v>
+        <v>0.03545014404084057</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3288939093.815535</v>
+        <v>3286738921.582632</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1244137146312267</v>
+        <v>0.1242625412350353</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03370078326472133</v>
+        <v>0.04334768744468694</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>229</v>
+      </c>
+      <c r="J93" t="n">
+        <v>478</v>
+      </c>
+      <c r="K93" t="n">
+        <v>25.93205068099241</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1764745096.521587</v>
+        <v>2189130402.236359</v>
       </c>
       <c r="F94" t="n">
-        <v>0.117707560388435</v>
+        <v>0.1149721323114188</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04273254830369604</v>
+        <v>0.04109369353622819</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3151322962.974893</v>
+        <v>3149529630.105293</v>
       </c>
       <c r="F95" t="n">
-        <v>0.126763290552311</v>
+        <v>0.1044066226035137</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04728676083770984</v>
+        <v>0.03737826469725768</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1662298722.833974</v>
+        <v>1834585567.260334</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1362061375643906</v>
+        <v>0.1319304771388347</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03270867996199682</v>
+        <v>0.02967566622448036</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5008029460.4237</v>
+        <v>4546488760.670444</v>
       </c>
       <c r="F97" t="n">
-        <v>0.176077832179518</v>
+        <v>0.1253500666347633</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02822659875327809</v>
+        <v>0.02843498703223276</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>249</v>
+      </c>
+      <c r="J97" t="n">
+        <v>479</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2986835812.735715</v>
+        <v>3348778823.20492</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07910158149092392</v>
+        <v>0.09275343700963926</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02272324517686657</v>
+        <v>0.02261178629914543</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>122</v>
+      </c>
+      <c r="J98" t="n">
+        <v>479</v>
+      </c>
+      <c r="K98" t="n">
+        <v>39.05360085206652</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3108467845.942112</v>
+        <v>3429521554.597356</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1467608692021642</v>
+        <v>0.120479192015676</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02136903162106861</v>
+        <v>0.03375264086578948</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3311436942.153849</v>
+        <v>4774447058.29863</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1633250398548062</v>
+        <v>0.1288421450167236</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01852546787503726</v>
+        <v>0.02302777636472517</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>223</v>
+      </c>
+      <c r="J100" t="n">
+        <v>479</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2290238103.515727</v>
+        <v>2593685836.523687</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1959749780935914</v>
+        <v>0.1976568195908883</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03793149072548117</v>
+        <v>0.04322513510227788</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
